--- a/LocHoiNhom/MauDanhSachBaiDang.xlsx
+++ b/LocHoiNhom/MauDanhSachBaiDang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>STT</t>
   </si>
@@ -33,13 +33,7 @@
     <t>Nội dung</t>
   </si>
   <si>
-    <t>Danh sách file kèm theo</t>
-  </si>
-  <si>
-    <t>Thông tin thêm</t>
-  </si>
-  <si>
-    <t>Phân tích</t>
+    <t>Thời gian</t>
   </si>
 </sst>
 </file>
@@ -83,12 +77,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,39 +364,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="30.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,23 +407,20 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
